--- a/List_surveyed_papers.xlsx
+++ b/List_surveyed_papers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="0" windowWidth="25360" windowHeight="14340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="140">
   <si>
     <t>Title</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -243,6 +243,204 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>Indonesian Journal of Electrical Engineering and Computer Science</t>
+  </si>
+  <si>
+    <t>Iberian Conference on Information Systems and Technologies, CISTI</t>
+  </si>
+  <si>
+    <t>Journal of Systems and Software</t>
+  </si>
+  <si>
+    <t>IEEE International Conference on Cloud Computing, CLOUD</t>
+  </si>
+  <si>
+    <t>Advances in Intelligent Systems and Computing</t>
+  </si>
+  <si>
+    <t>Conference on Local Computer Networks, LCN</t>
+  </si>
+  <si>
+    <t>27th IEEE International Symposium on Software Reliability Engineering Workshops, ISSREW 2016</t>
+  </si>
+  <si>
+    <t>IEEE World Congress on Services, SERVICES 2016</t>
+  </si>
+  <si>
+    <t>ACM International Conference Proceeding Series</t>
+  </si>
+  <si>
+    <t>IEEE 14th International Symposium on Network Computing and Applications, NCA 2015</t>
+  </si>
+  <si>
+    <t>IEEE 4th Symposium on Network Cloud Computing and Applications, NCCA 2015</t>
+  </si>
+  <si>
+    <t>International Journal of Software Engineering and Knowledge Engineering</t>
+  </si>
+  <si>
+    <t>IEEE 9th International Conference on Intelligent Systems and Control, ISCO 2015</t>
+  </si>
+  <si>
+    <t>IEEE 8th International Conference on Cloud Computing, CLOUD 2015</t>
+  </si>
+  <si>
+    <t>6th Asia-Pacific Systems Workshop, APSys 2015</t>
+  </si>
+  <si>
+    <t>3rd International Conference on Parallel, Distributed and Grid Computing, PDGC 2014</t>
+  </si>
+  <si>
+    <t>International Conference on Software Engineering and Knowledge Engineering, SEKE</t>
+  </si>
+  <si>
+    <t>International Conference on Cloud and Autonomic Computing, ICCAC 2014</t>
+  </si>
+  <si>
+    <t>Ad Hoc Networks</t>
+  </si>
+  <si>
+    <t>Journal of Software</t>
+  </si>
+  <si>
+    <t>Quality Technology and Quantitative Management</t>
+  </si>
+  <si>
+    <t>ACM Journal on Emerging Technologies in Computing Systems</t>
+  </si>
+  <si>
+    <t>IEEE 25th International Symposium on Software Reliability Engineering Workshops, ISSREW 2014</t>
+  </si>
+  <si>
+    <t>Scientific World Journal</t>
+  </si>
+  <si>
+    <t>IEEE Workshop on Electronics, Computer and Applications, IWECA 2014</t>
+  </si>
+  <si>
+    <t>IEEE International Conference on Systems, Man, and Cybernetics, SMC 2013</t>
+  </si>
+  <si>
+    <t>Journal of Computational Information Systems</t>
+  </si>
+  <si>
+    <t>Applied Mechanics and Materials</t>
+  </si>
+  <si>
+    <t>International Conference on Dependable Systems and Networks</t>
+  </si>
+  <si>
+    <t>IFIP/IEEE International Symposium on Integrated Network Management, IM 2013</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Computers</t>
+  </si>
+  <si>
+    <t>Performance Evaluation</t>
+  </si>
+  <si>
+    <t>IEEE Sixth International Conference on Software Security and Reliability</t>
+  </si>
+  <si>
+    <t>23rd IEEE International Symposium on Software Reliability Engineering, ISSRE</t>
+  </si>
+  <si>
+    <t>IEEE International Conference on Systems, Man and Cybernetics</t>
+  </si>
+  <si>
+    <t>International Conference on Parallel and Distributed Systems - ICPADS</t>
+  </si>
+  <si>
+    <t>23rd IEEE International Symposium on Software Reliability Engineering Workshops, ISSREW 2012</t>
+  </si>
+  <si>
+    <t>9th IEEE International Conference on Ubiquitous Intelligence and Computing and IEEE 9th International Conference on Autonomic and Trusted Computing, UIC-ATC 2012</t>
+  </si>
+  <si>
+    <t>SIMUTools 2012 - 5th International Conference on Simulation Tools and Techniques</t>
+  </si>
+  <si>
+    <t>22nd IEEE International Symposium on Software Reliability Engineering Workshops, ISSREW 2011</t>
+  </si>
+  <si>
+    <t>22nd IEEE International Symposium on Software Reliability Engineering Workshops, ISSRE 2011</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Dependable and Secure Computing</t>
+  </si>
+  <si>
+    <t>IEEE International Conference on Systems, Man, and Cybernetics</t>
+  </si>
+  <si>
+    <t>Middleware</t>
+  </si>
+  <si>
+    <t>IEEE Third International Conference on Cloud Computing Technology and Science</t>
+  </si>
+  <si>
+    <t>The 1st International Conference on Cloud Computing and Services Science</t>
+  </si>
+  <si>
+    <t>7th International Conference on Information Processing and Management, ICIPM 2011</t>
+  </si>
+  <si>
+    <t>2011 6th IEEE Joint International Information Technology and Artificial Intelligence Conference, ITAIC 2011</t>
+  </si>
+  <si>
+    <t>21st IEEE International Symposium on Software Reliability Engineering Workshops, ISSREW 2010</t>
+  </si>
+  <si>
+    <t>2nd International Conference on Information Engineering and Computer Science</t>
+  </si>
+  <si>
+    <t>IEEE Second International Conference on Cloud Computing Technology and Science</t>
+  </si>
+  <si>
+    <t>ICCASM 2010 - 2010 International Conference on Computer Application and System Modeling, Proceedings</t>
+  </si>
+  <si>
+    <t>Lecture Notes of the Institute for Computer Sciences, Social-Informatics and Telecommunications Engineering</t>
+  </si>
+  <si>
+    <t>SSIRI 2010 - 4th IEEE International Conference on Secure Software Integration and Reliability Improvement</t>
+  </si>
+  <si>
+    <t>ARES 2010 - 5th International Conference on Availability, Reliability, and Security</t>
+  </si>
+  <si>
+    <t>2008 IEEE International Conference on Software Reliability Engineering Workshops, ISSRE Wksp 2008</t>
+  </si>
+  <si>
+    <t>Journal of Computer Science and Technology</t>
+  </si>
+  <si>
+    <t>17th international symposium on High performance distributed computing</t>
+  </si>
+  <si>
+    <t>Architecting Dependable Systems V. Lecture Notes in Computer Science, vol 5135</t>
+  </si>
+  <si>
+    <t>2nd workshop on Recent advances on intrusiton-tolerant systems</t>
+  </si>
+  <si>
+    <t>International Workshop on Distributed Systems: Operations and Management</t>
+  </si>
+  <si>
+    <t>37th Annual IEEE/IFIP International Conference on Dependable Systems and Networks</t>
+  </si>
+  <si>
+    <t>8th IEEE/ACM International Conference on Grid Computing</t>
+  </si>
+  <si>
+    <t>Workshop on Architecting Dependable Systems</t>
+  </si>
+  <si>
+    <t>26th IEEE International Symposium on Reliable Distributed Systems</t>
+  </si>
+  <si>
+    <t>Publication venue</t>
   </si>
 </sst>
 </file>
@@ -307,21 +505,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -360,10 +549,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -372,7 +560,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -736,600 +926,820 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="102.83203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="102.83203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2017</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2017</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>2017</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>2017</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>2017</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>2016</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>2016</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>2016</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>2016</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>2016</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>2015</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>2015</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>2015</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>2015</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>2015</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>2015</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>2015</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>2015</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>2015</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>2014</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>2014</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>2014</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>2014</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>2014</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>2014</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>2014</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>2013</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>2013</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>2013</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>2013</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>2013</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>2013</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>2013</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>2013</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>2013</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>2013</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>2012</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>2012</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>2012</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>2012</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>2012</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>2012</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="1">
         <v>2012</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>2012</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="1">
         <v>2011</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="1">
         <v>2011</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="1">
         <v>2011</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="1">
         <v>2011</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>2011</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>2011</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>2011</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" s="1" customFormat="1">
+      <c r="C52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="1" customFormat="1">
       <c r="A53" s="1">
         <v>2011</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>2011</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>2011</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="1">
         <v>2010</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>2010</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>2010</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>2010</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>2010</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>2010</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>2010</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="1">
         <v>2009</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="C63" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64">
         <v>2009</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>2009</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>2008</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>2008</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>2008</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="C68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1">
         <v>2007</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1">
         <v>2007</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="C70" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71">
         <v>2007</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="C71" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72">
         <v>2007</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="2">
+      <c r="C72" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="7">
         <v>2007</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="8" t="s">
         <v>72</v>
       </c>
+      <c r="C73" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D73" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
